--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1969162.801737201</v>
+        <v>2032691.775000044</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903701</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768292</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7180249.729017155</v>
+        <v>7399007.607244353</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>253.8998584422224</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>401.9879221893125</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>253.8534282479005</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>196.7357836151898</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>268.1487056832385</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>130.3875849717244</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.0911530820968</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -1102,13 +1104,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>178.6404668294398</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>3.620925407613472</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>68.60514786915842</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>169.1225351906783</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1372,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1421,22 +1423,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>98.13828006631856</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>351.080144279057</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>144.3638265823899</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,19 +1612,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>104.9007441044554</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1661,7 +1663,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1895,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>249.8416865264124</v>
       </c>
       <c r="X19" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,10 +2083,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>363.9585094926619</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
@@ -2141,7 +2143,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>291.3512556275626</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2257,7 +2259,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>142.5359303380066</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2327,16 +2329,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>59.82422708687625</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>153.0251390105129</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2542,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.0591948939936</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>177.9195839254091</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.387452063934797</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2849,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>123.2715627317515</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2950,25 +2952,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y31" t="n">
-        <v>114.3915389081189</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>177.3516742227375</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>119.5616349353283</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>91.04473440253321</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.42227043795236</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3424,25 +3426,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>171.873363262333</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>64.62510617393822</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,10 +3514,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>96.08513982486603</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>108.2642464846189</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>164.5078794940947</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.53944252214014</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3724,7 +3726,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3740,13 +3742,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>209.3277174905203</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>131.1538891029458</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>166.7165542762725</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3913,7 +3915,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -3949,13 +3951,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>155.9474762551628</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,16 +3985,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F44" t="n">
-        <v>126.5313549491648</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4135,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>133.6130676594814</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>234.3984192269988</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277.389703984565</v>
+        <v>1946.792430650117</v>
       </c>
       <c r="C2" t="n">
-        <v>867.2651132978355</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D2" t="n">
-        <v>462.801183390896</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E2" t="n">
-        <v>452.5013719481967</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45296569636579</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
         <v>41.76508562960205</v>
@@ -4328,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M2" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4355,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>1687.610883649055</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.610883649055</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959275</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>675.1644281008383</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>960.0055634924552</v>
+        <v>377.4895839572943</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>803.5331524916553</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>803.5331524916553</v>
       </c>
       <c r="X4" t="n">
-        <v>1372.440968497735</v>
+        <v>565.1892903513386</v>
       </c>
       <c r="Y4" t="n">
-        <v>1147.7052698865</v>
+        <v>565.1892903513386</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.14903281907</v>
+        <v>1020.035937023213</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.064846172744</v>
+        <v>609.911346336483</v>
       </c>
       <c r="D5" t="n">
-        <v>1539.641320306209</v>
+        <v>205.4474164295435</v>
       </c>
       <c r="E5" t="n">
-        <v>1268.784041838291</v>
+        <v>195.1476049868443</v>
       </c>
       <c r="F5" t="n">
-        <v>847.7536297919787</v>
+        <v>178.1575969809359</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>173.4697169141722</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4568,22 +4570,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
         <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>733.4074053521598</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.973206274203</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X5" t="n">
-        <v>1552.329808443156</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="Y5" t="n">
-        <v>1552.329808443156</v>
+        <v>1430.257116687702</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4649,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N6" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E7" t="n">
         <v>639.6001036836846</v>
@@ -4750,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1246.342524902554</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1246.342524902554</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W7" t="n">
-        <v>1246.342524902554</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X7" t="n">
-        <v>1246.342524902554</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y7" t="n">
-        <v>1246.342524902554</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1455.826617762472</v>
+        <v>2137.925013712426</v>
       </c>
       <c r="C8" t="n">
-        <v>1045.702027075742</v>
+        <v>1727.800423025697</v>
       </c>
       <c r="D8" t="n">
-        <v>1045.278501209206</v>
+        <v>1323.336493118757</v>
       </c>
       <c r="E8" t="n">
-        <v>630.938285726103</v>
+        <v>908.9962776356538</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>487.9658655893414</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>1866.047797426961</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>1866.047797426961</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>1866.047797426961</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>1866.047797426961</v>
+        <v>2949.082866428826</v>
       </c>
       <c r="Y8" t="n">
-        <v>1866.047797426961</v>
+        <v>2548.146193376916</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5779431922353</v>
+        <v>278.830583030002</v>
       </c>
       <c r="M9" t="n">
-        <v>751.4208778585605</v>
+        <v>1121.807663724569</v>
       </c>
       <c r="N9" t="n">
-        <v>1268.263812524886</v>
+        <v>1995.465755836186</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433488</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433488</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>655.949539715106</v>
+        <v>326.4092270664183</v>
       </c>
       <c r="C10" t="n">
-        <v>484.8561672768225</v>
+        <v>155.3158546281348</v>
       </c>
       <c r="D10" t="n">
-        <v>325.3615225997325</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3615225997325</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="U10" t="n">
-        <v>1288.365834796576</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="V10" t="n">
-        <v>1014.480089736098</v>
+        <v>1256.25815870314</v>
       </c>
       <c r="W10" t="n">
-        <v>1014.480089736098</v>
+        <v>977.1884942120146</v>
       </c>
       <c r="X10" t="n">
-        <v>843.6492461091503</v>
+        <v>738.844632071698</v>
       </c>
       <c r="Y10" t="n">
-        <v>843.6492461091503</v>
+        <v>514.1089334604627</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1707.370959182952</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1707.370959182952</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1302.907029276013</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>1302.907029276013</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>881.8766172297003</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>473.1483331225325</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>868.2330456441175</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1506.717429906452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2259.89844654507</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2903.529302962175</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3659.122578160285</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3402.062086419795</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3302.932510595231</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2919.172209730399</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2518.528811899352</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y11" t="n">
-        <v>2117.592138847442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>268.7009306299569</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N12" t="n">
-        <v>1142.359022741575</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>1210.82691174531</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1772.53280423384</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.88807306732367</v>
+        <v>406.3161358179984</v>
       </c>
       <c r="C13" t="n">
-        <v>75.88807306732367</v>
+        <v>406.3161358179984</v>
       </c>
       <c r="D13" t="n">
-        <v>75.88807306732367</v>
+        <v>406.3161358179984</v>
       </c>
       <c r="E13" t="n">
-        <v>75.88807306732367</v>
+        <v>406.3161358179984</v>
       </c>
       <c r="F13" t="n">
-        <v>75.88807306732367</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1094.073744220186</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>811.2755967663099</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V13" t="n">
-        <v>537.3898517058319</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W13" t="n">
-        <v>258.3201872147063</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X13" t="n">
-        <v>75.88807306732367</v>
+        <v>594.0158422120428</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.88807306732367</v>
+        <v>594.0158422120428</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.516988031346</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1081.392397344616</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>676.9284674376763</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E14" t="n">
-        <v>676.9284674376763</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>676.9284674376763</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>268.2001833305085</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>868.2330456441175</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1644.551636635872</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2259.89844654507</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2903.529302962175</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3436.916094107144</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3087.078539443624</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2703.318238578793</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2302.674840747745</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>1901.738167695835</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>531.6943293326224</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>1192.782501251911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>2035.759581946477</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>2035.759581946477</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1094.073744220186</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>811.2755967663099</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>537.3898517058319</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>258.3201872147063</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G17" t="n">
-        <v>179.5954603735497</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5513,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5543,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>2053.115206569777</v>
+        <v>916.2303367455215</v>
       </c>
       <c r="N18" t="n">
-        <v>2053.115206569777</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>554.7454763291312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W19" t="n">
-        <v>275.6758118380055</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="X19" t="n">
-        <v>93.2436976906228</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.2436976906228</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1734.602869382415</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
         <v>1734.602869382415</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5841,13 +5843,13 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1066.231502096085</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C22" t="n">
-        <v>895.138129657802</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D22" t="n">
-        <v>735.6434849807119</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E22" t="n">
-        <v>574.7326698490315</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F22" t="n">
-        <v>410.1015439596227</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5950,10 +5952,10 @@
         <v>1622.642594311473</v>
       </c>
       <c r="X22" t="n">
-        <v>1478.666907101365</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y22" t="n">
-        <v>1253.93120849013</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>410.1015439596227</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C25" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6178,19 +6180,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.844446857597</v>
+        <v>1468.071746826106</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.958701797119</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="W25" t="n">
-        <v>786.8890373059935</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X25" t="n">
-        <v>548.5451751656769</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y25" t="n">
-        <v>410.1015439596227</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D26" t="n">
         <v>1734.602869382415</v>
@@ -6257,19 +6259,19 @@
         <v>4526.90380932524</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.13812587521</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1210.13812587521</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6409,25 +6411,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V28" t="n">
-        <v>554.7454763291312</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W28" t="n">
-        <v>275.6758118380055</v>
+        <v>1258.300211495747</v>
       </c>
       <c r="X28" t="n">
-        <v>93.2436976906228</v>
+        <v>1019.95634935543</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6543,13 +6545,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>212.9817385874103</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>874.0699105066985</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>874.0699105066985</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
         <v>874.0699105066985</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6646,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>913.9039397142094</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>913.9039397142094</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>634.8342752230838</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X31" t="n">
-        <v>396.4904130827671</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y31" t="n">
-        <v>280.9434040846672</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2237.518802661711</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1827.394211974981</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
         <v>1648.251106699488</v>
@@ -6728,22 +6730,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4182.917908737509</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2647.7399823262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>3732.590116865226</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>3732.590116865226</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>3732.590116865226</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
-        <v>4436.54720741112</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>376.8401346607533</v>
+        <v>1032.970092797216</v>
       </c>
       <c r="C34" t="n">
-        <v>376.8401346607533</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="D34" t="n">
-        <v>376.8401346607533</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="E34" t="n">
-        <v>376.8401346607533</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F34" t="n">
         <v>376.8401346607533</v>
@@ -6886,22 +6888,22 @@
         <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>1297.821136963575</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U34" t="n">
-        <v>1015.022989509699</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.022989509699</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W34" t="n">
-        <v>735.9533250185732</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X34" t="n">
-        <v>497.6094628782566</v>
+        <v>1445.405497802496</v>
       </c>
       <c r="Y34" t="n">
-        <v>497.6094628782566</v>
+        <v>1220.66979919126</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4439.978400477999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7023,10 +7025,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.2436976906228</v>
+        <v>858.4517774252606</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V37" t="n">
-        <v>1023.092629327345</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W37" t="n">
-        <v>744.0229648362191</v>
+        <v>1046.151483819305</v>
       </c>
       <c r="X37" t="n">
-        <v>505.6791026959025</v>
+        <v>1046.151483819305</v>
       </c>
       <c r="Y37" t="n">
-        <v>280.9434040846672</v>
+        <v>1046.151483819305</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2237.518802661711</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C38" t="n">
-        <v>1827.394211974981</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.930282068041</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E38" t="n">
-        <v>1008.590066584938</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F38" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
         <v>490.5039577458317</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4552.827059799201</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4330.62057574606</v>
       </c>
       <c r="U38" t="n">
-        <v>4182.917908737509</v>
+        <v>4073.56008400557</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.080354073989</v>
+        <v>3723.722529342051</v>
       </c>
       <c r="W38" t="n">
-        <v>3449.320053209158</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X38" t="n">
-        <v>3048.67665537811</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y38" t="n">
-        <v>2647.7399823262</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7259,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>136.2128315513704</v>
+        <v>418.9079176142731</v>
       </c>
       <c r="C40" t="n">
-        <v>136.2128315513704</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D40" t="n">
-        <v>136.2128315513704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>136.2128315513704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2128315513704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>136.2128315513704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2128315513704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>913.9039397142094</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V40" t="n">
-        <v>640.0181946537314</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W40" t="n">
-        <v>360.9485301626057</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X40" t="n">
-        <v>360.9485301626057</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.2128315513704</v>
+        <v>606.6076240083174</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1621.019196500025</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1621.019196500025</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1216.555266593086</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.555266593086</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>795.5248545467734</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7965704396057</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>3110.216151259514</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3753.847007676619</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3572.197169313043</v>
+        <v>4315.461670445927</v>
       </c>
       <c r="U41" t="n">
-        <v>3315.136677572553</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="V41" t="n">
-        <v>2965.299122909033</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>2832.820447047472</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2432.177049216425</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2031.240376164515</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2426.745299402218</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>2292.750228151164</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>2175.853070370556</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2055.360254362884</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>1946.400374545389</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>1839.410261859728</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>1768.663048895444</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>1747.914457515684</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>1747.914457515684</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>1747.914457515684</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>1747.914457515684</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>2541.341577207952</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N42" t="n">
-        <v>3414.99966931957</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
-        <v>3414.99966931957</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>3414.99966931957</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>3764.844134003554</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>3794.403653366184</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>3686.413643480493</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>3527.071779667501</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>3329.72096880572</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3116.009441798753</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>2902.776273535082</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>2726.450291673975</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>2567.048332037805</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>524.1156359268629</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C43" t="n">
-        <v>524.1156359268629</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D43" t="n">
-        <v>524.1156359268629</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E43" t="n">
-        <v>524.1156359268629</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F43" t="n">
-        <v>359.4845100374541</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G43" t="n">
-        <v>192.2341189629975</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H43" t="n">
-        <v>192.2341189629975</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1520.014251363573</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S43" t="n">
-        <v>1333.622483243484</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T43" t="n">
-        <v>1094.073744220186</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="U43" t="n">
-        <v>1094.073744220186</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="V43" t="n">
-        <v>936.5510409321425</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="W43" t="n">
-        <v>936.5510409321425</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="X43" t="n">
-        <v>936.5510409321425</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="Y43" t="n">
-        <v>711.8153423209072</v>
+        <v>4390.520398086449</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1841.354542694865</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>1431.229952008135</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>1026.766022101196</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>612.4258066180923</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>484.6163571744915</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>75.88807306732367</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2944.08594865174</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2944.08594865174</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.242646570892</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3436.916094107144</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3436.916094107144</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3053.155793242312</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2652.512395411265</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2251.575722359355</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>1111.678011324524</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N45" t="n">
-        <v>1111.678011324524</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O45" t="n">
-        <v>1772.53280423384</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1772.53280423384</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>863.1377444454962</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C46" t="n">
-        <v>728.1750498399595</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D46" t="n">
-        <v>568.6804051628695</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E46" t="n">
-        <v>407.769590031189</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F46" t="n">
-        <v>243.1384641417803</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G46" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H46" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S46" t="n">
-        <v>1605.286969688174</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T46" t="n">
-        <v>1605.286969688174</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U46" t="n">
-        <v>1605.286969688174</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V46" t="n">
-        <v>1605.286969688174</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W46" t="n">
-        <v>1326.217305197048</v>
+        <v>3357.521686521525</v>
       </c>
       <c r="X46" t="n">
-        <v>1087.873443056732</v>
+        <v>3357.521686521525</v>
       </c>
       <c r="Y46" t="n">
-        <v>863.1377444454962</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>333.3534809699548</v>
       </c>
       <c r="L2" t="n">
-        <v>272.0504334731807</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
@@ -7997,7 +7999,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8055,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>175.2980289959031</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>391.198134128384</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8216,25 +8218,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>269.4773261669552</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8295,22 +8297,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>98.1240166537967</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>554.1634861730672</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>270.501948108868</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8538,19 +8540,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>502.7883324430327</v>
+        <v>166.3187983121739</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8693,10 +8695,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>738.2239459341513</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8711,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8775,19 +8777,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N12" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>126.9109628421569</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>714.4747250083352</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -9006,19 +9008,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>145.24409210237</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>888.8639191474061</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>145.24409210237</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9489,16 +9491,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>915.4839494260226</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9954,25 +9956,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>643.3578456484137</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10191,16 +10193,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>176.7732988419765</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
@@ -10428,22 +10430,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
-        <v>282.1764805785809</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10671,13 +10673,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,19 +10907,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11069,16 +11071,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>853.592204707533</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11145,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>859.005818781113</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N42" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,10 +11308,10 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>685.7839192451353</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11318,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
@@ -11382,19 +11384,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>725.2815728477945</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.2008990505656</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>45.84716204233382</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23425,10 +23427,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>18.62098804812479</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23498,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>202.8986682941038</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300467</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>26.43728131980197</v>
       </c>
       <c r="X19" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>42.06483528720065</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>88.57144222862053</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>93.42449318090684</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>356.9958808389731</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24376,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24418,7 +24420,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>126.9450269688242</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.42914673112929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24497,7 +24499,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>214.1008895611881</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>223.0676163851326</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.096802717004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>223.0676163851326</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.26107439477569</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>144.9156891163802</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>223.0676163851326</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>99.27352434754022</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>211.6538616722762</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25400,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>4.874559219806002</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25567,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>72.64314291457697</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>10.65670172208945</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>248.7688087532373</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>19.10615505383146</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>115.1994113547105</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25852,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F44" t="n">
-        <v>290.2887529766845</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25919,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>35.76937105441928</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>41.88054861921555</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>687131.5364568712</v>
+        <v>695848.8595085493</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>551123.0143339741</v>
+        <v>623234.2600607808</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>551123.014333974</v>
+        <v>623234.2600607808</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>623234.2600607808</v>
+        <v>623234.2600607807</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>623234.2600607807</v>
+        <v>623234.2600607808</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>623234.2600607808</v>
+        <v>623234.2600607809</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>623234.2600607808</v>
+        <v>623234.2600607809</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>623234.2600607807</v>
+        <v>623234.2600607809</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>551123.0143339741</v>
+        <v>623234.2600607807</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>551123.0143339741</v>
+        <v>623234.2600607807</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472358.9397941253</v>
+        <v>472358.9397941252</v>
       </c>
       <c r="C2" t="n">
         <v>472358.9397941252</v>
       </c>
       <c r="D2" t="n">
-        <v>472358.9397941254</v>
+        <v>472358.939794125</v>
       </c>
       <c r="E2" t="n">
-        <v>371403.2867899023</v>
+        <v>419990.567925886</v>
       </c>
       <c r="F2" t="n">
-        <v>371403.2867899022</v>
+        <v>419990.567925886</v>
       </c>
       <c r="G2" t="n">
         <v>419990.567925886</v>
       </c>
       <c r="H2" t="n">
-        <v>419990.5679258859</v>
+        <v>419990.5679258861</v>
       </c>
       <c r="I2" t="n">
+        <v>419990.5679258858</v>
+      </c>
+      <c r="J2" t="n">
         <v>419990.567925886</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>419990.5679258858</v>
+      </c>
+      <c r="L2" t="n">
         <v>419990.5679258861</v>
       </c>
-      <c r="K2" t="n">
-        <v>419990.5679258859</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>419990.5679258861</v>
+      </c>
+      <c r="N2" t="n">
+        <v>419990.567925886</v>
+      </c>
+      <c r="O2" t="n">
+        <v>419990.567925886</v>
+      </c>
+      <c r="P2" t="n">
         <v>419990.5679258858</v>
-      </c>
-      <c r="M2" t="n">
-        <v>419990.5679258858</v>
-      </c>
-      <c r="N2" t="n">
-        <v>419990.5679258858</v>
-      </c>
-      <c r="O2" t="n">
-        <v>371403.2867899021</v>
-      </c>
-      <c r="P2" t="n">
-        <v>371403.286789902</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>174432.0962319951</v>
+        <v>85879.9925474617</v>
       </c>
       <c r="E4" t="n">
-        <v>26671.17032028951</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="F4" t="n">
-        <v>26671.1703202895</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
@@ -26442,7 +26444,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="K4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="L4" t="n">
         <v>30192.61954398331</v>
@@ -26454,10 +26456,10 @@
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>26671.17032028951</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="P4" t="n">
-        <v>26671.17032028951</v>
+        <v>30192.61954398332</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>57602.26859051853</v>
       </c>
       <c r="C6" t="n">
-        <v>232557.7784836325</v>
+        <v>232557.7784836326</v>
       </c>
       <c r="D6" t="n">
-        <v>232557.7784836327</v>
+        <v>115650.4069813946</v>
       </c>
       <c r="E6" t="n">
-        <v>159702.5141486962</v>
+        <v>291963.7839560951</v>
       </c>
       <c r="F6" t="n">
-        <v>287057.1809384467</v>
+        <v>318932.7381370294</v>
       </c>
       <c r="G6" t="n">
-        <v>259471.2834510676</v>
+        <v>318932.7381370293</v>
       </c>
       <c r="H6" t="n">
+        <v>318932.7381370295</v>
+      </c>
+      <c r="I6" t="n">
+        <v>318932.7381370292</v>
+      </c>
+      <c r="J6" t="n">
+        <v>182337.9373311344</v>
+      </c>
+      <c r="K6" t="n">
+        <v>318932.7381370292</v>
+      </c>
+      <c r="L6" t="n">
+        <v>178933.4272722767</v>
+      </c>
+      <c r="M6" t="n">
+        <v>296423.473362982</v>
+      </c>
+      <c r="N6" t="n">
         <v>318932.7381370293</v>
       </c>
-      <c r="I6" t="n">
-        <v>318932.7381370294</v>
-      </c>
-      <c r="J6" t="n">
-        <v>182337.9373311345</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>318932.7381370293</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>318932.7381370292</v>
-      </c>
-      <c r="M6" t="n">
-        <v>212637.9261191545</v>
-      </c>
-      <c r="N6" t="n">
-        <v>318932.7381370292</v>
-      </c>
-      <c r="O6" t="n">
-        <v>287057.1809384466</v>
-      </c>
-      <c r="P6" t="n">
-        <v>287057.1809384465</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>152.1234863376401</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>14.83218573653676</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27442,7 +27444,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>17.29345936197274</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>39.22463990372367</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>142.0481076450337</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>177.4118274268348</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27679,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.73155624800719</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>23.12472639190918</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>238.1796410964095</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>393.0160384451235</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>89.29455036116066</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28023,13 +28025,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28065,19 +28067,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>66.83788832823518</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>244.2170912967377</v>
+      </c>
+      <c r="L2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>176.5650354103359</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
@@ -34717,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>117.7337452574857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>338.004740734634</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
+        <v>500.9700927793172</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793177</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>176.8525848279838</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>445.0368534430327</v>
+        <v>108.5673193121739</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35413,10 +35415,10 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>644.9337214771058</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35431,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N12" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>69.15948384215687</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>621.5624342517159</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>87.49261310237</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>831.2996354089887</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>87.49261310237</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>862.2905560322727</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>585.6063666484137</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>120.9475160573611</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
-        <v>227.9168455757771</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37789,16 +37791,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>760.6799139509137</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>801.4415350426956</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N42" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,10 +38028,10 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>592.871628488516</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38038,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>667.5300938477944</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2032691.775000044</v>
+        <v>2031379.129544464</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.811029739</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7399007.607244353</v>
+        <v>7399007.607244354</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>253.8998584422224</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -670,10 +670,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>247.8765136623601</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>171.7778090734121</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>253.8534282479005</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>63.38869389333449</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>130.3875849717244</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>158.2218444967755</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>136.1769805884545</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1113,7 +1113,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>123.1859444429712</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1198,7 +1198,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>3.620925407613472</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1296,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>68.60514786915842</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1435,10 +1435,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>351.080144279057</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>59.82002514395945</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>144.3638265823899</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>368.1319780410717</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>155.8944499847356</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>85.2997057160983</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>53.20093248929926</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -2004,25 +2004,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>85.2543260913488</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>249.8416865264124</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>291.3512556275626</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2329,16 +2329,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2380,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>376.8395006836604</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>204.8286530457888</v>
       </c>
       <c r="U25" t="n">
-        <v>153.0251390105129</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2560,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>177.9195839254091</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2608,16 +2608,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>191.9284587841973</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>80.39790293131063</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.387452063934797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2845,13 +2845,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>155.8335957378399</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>343.2559819443612</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>262.2537570519889</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>91.04473440253321</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3283,7 +3283,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>211.6544656203731</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3319,13 +3319,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>64.62510617393822</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>108.2642464846189</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3663,25 +3663,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>164.5078794940947</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>35.88400484444504</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>209.3277174905203</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>360.5621482941648</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.7165542762725</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>93.86998482510113</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>211.6544656203731</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>131.1006862032941</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>234.3984192269988</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1946.792430650117</v>
+        <v>1292.371709779047</v>
       </c>
       <c r="C2" t="n">
-        <v>1690.327927173125</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.863997266186</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
         <v>41.76508562960205</v>
@@ -4330,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>537.7254774811266</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L2" t="n">
-        <v>1054.568412147452</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M2" t="n">
-        <v>1571.411346813777</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N2" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4375,7 +4375,7 @@
         <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.973206274203</v>
+        <v>1702.592889443536</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>690.3841994575342</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>377.4895839572943</v>
+        <v>380.1088491423421</v>
       </c>
       <c r="C4" t="n">
-        <v>206.3962115190108</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D4" t="n">
-        <v>206.3962115190108</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E4" t="n">
-        <v>206.3962115190108</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
         <v>41.76508562960205</v>
@@ -4518,22 +4518,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>1059.950756782464</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V4" t="n">
-        <v>803.5331524916553</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="W4" t="n">
-        <v>803.5331524916553</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="X4" t="n">
-        <v>565.1892903513386</v>
+        <v>778.3574862115695</v>
       </c>
       <c r="Y4" t="n">
-        <v>565.1892903513386</v>
+        <v>553.6217876003342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1020.035937023213</v>
+        <v>1252.968975398866</v>
       </c>
       <c r="C5" t="n">
-        <v>609.911346336483</v>
+        <v>1246.884788752541</v>
       </c>
       <c r="D5" t="n">
-        <v>205.4474164295435</v>
+        <v>1246.461262886005</v>
       </c>
       <c r="E5" t="n">
-        <v>195.1476049868443</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F5" t="n">
-        <v>178.1575969809359</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>173.4697169141722</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4567,28 +4567,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.193789739612</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X5" t="n">
-        <v>1831.193789739612</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="Y5" t="n">
-        <v>1430.257116687702</v>
+        <v>1259.149751022952</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.1526093285881</v>
+        <v>362.4959457075205</v>
       </c>
       <c r="C7" t="n">
-        <v>777.1526093285881</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="D7" t="n">
-        <v>777.1526093285881</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>777.1526093285881</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>777.1526093285881</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="X7" t="n">
-        <v>777.1526093285881</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="Y7" t="n">
-        <v>777.1526093285881</v>
+        <v>550.1956521015649</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2137.925013712426</v>
+        <v>2231.056920380548</v>
       </c>
       <c r="C8" t="n">
-        <v>1727.800423025697</v>
+        <v>1820.932329693819</v>
       </c>
       <c r="D8" t="n">
-        <v>1323.336493118757</v>
+        <v>1416.468399786879</v>
       </c>
       <c r="E8" t="n">
-        <v>908.9962776356538</v>
+        <v>1002.128184303776</v>
       </c>
       <c r="F8" t="n">
-        <v>487.9658655893414</v>
+        <v>581.0977722574635</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225776</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="H8" t="n">
         <v>172.3694881502956</v>
@@ -4813,13 +4813,13 @@
         <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2367.272688848154</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>3120.453705486772</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>3764.084561903877</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
         <v>3939.168620883581</v>
@@ -4831,25 +4831,25 @@
         <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162539</v>
+        <v>4176.456026456346</v>
       </c>
       <c r="T8" t="n">
-        <v>3943.398714109398</v>
+        <v>4176.456026456346</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368908</v>
+        <v>4176.456026456346</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705388</v>
+        <v>3826.618471792827</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.740366840557</v>
+        <v>3442.858170927995</v>
       </c>
       <c r="X8" t="n">
-        <v>2949.082866428826</v>
+        <v>3042.214773096948</v>
       </c>
       <c r="Y8" t="n">
-        <v>2548.146193376916</v>
+        <v>2641.278100045038</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>278.830583030002</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>278.830583030002</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>278.830583030002</v>
+        <v>415.871748511684</v>
       </c>
       <c r="M9" t="n">
-        <v>1121.807663724569</v>
+        <v>1258.848829206251</v>
       </c>
       <c r="N9" t="n">
-        <v>1995.465755836186</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="O9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>326.4092270664183</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>155.3158546281348</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>86.01772546736876</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736876</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736876</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736876</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1256.25815870314</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>977.1884942120146</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>738.844632071698</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.1089334604627</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X11" t="n">
-        <v>3314.038978003258</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y11" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5129,13 +5129,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>406.3161358179984</v>
+        <v>1071.908443375657</v>
       </c>
       <c r="C13" t="n">
-        <v>406.3161358179984</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D13" t="n">
-        <v>406.3161358179984</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E13" t="n">
-        <v>406.3161358179984</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>260.4940887650794</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5229,22 +5229,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U13" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V13" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W13" t="n">
-        <v>832.3597043523594</v>
+        <v>1071.908443375657</v>
       </c>
       <c r="X13" t="n">
-        <v>594.0158422120428</v>
+        <v>1071.908443375657</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.0158422120428</v>
+        <v>1071.908443375657</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1692.113136769081</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>179.8613846619692</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N15" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>367.0588849850195</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2324.444211508952</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1914.319620822223</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1509.855690915283</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1095.51547543218</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F17" t="n">
-        <v>674.4850633858673</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G17" t="n">
-        <v>265.7567792786995</v>
+        <v>457.8905107086616</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>146.9820133363796</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3920.005762921231</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3536.245462056399</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3135.602064225352</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2734.665391173442</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>916.2303367455215</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N18" t="n">
-        <v>1789.888428857139</v>
+        <v>2083.796217986828</v>
       </c>
       <c r="O18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>179.3591785909751</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W19" t="n">
-        <v>1370.277254385804</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X19" t="n">
-        <v>1370.277254385804</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y19" t="n">
-        <v>1370.277254385804</v>
+        <v>367.0588849850195</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5785,19 +5785,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.012952997039</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.3370701289063</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>1229.353196852202</v>
       </c>
       <c r="U25" t="n">
-        <v>1468.071746826106</v>
+        <v>946.5550493983267</v>
       </c>
       <c r="V25" t="n">
-        <v>1194.186001765628</v>
+        <v>672.6693043378486</v>
       </c>
       <c r="W25" t="n">
-        <v>915.1163372745027</v>
+        <v>672.6693043378486</v>
       </c>
       <c r="X25" t="n">
-        <v>676.772475134186</v>
+        <v>434.325442197532</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.0367765229507</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1914.319620822223</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
         <v>1734.602869382415</v>
@@ -6256,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4269.84331758475</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V26" t="n">
-        <v>3920.005762921231</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W26" t="n">
-        <v>3536.245462056399</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1011.484175553476</v>
+        <v>174.4537006515426</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>174.4537006515426</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>174.4537006515426</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.369875986873</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W28" t="n">
-        <v>1258.300211495747</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X28" t="n">
-        <v>1019.95634935543</v>
+        <v>362.153407045587</v>
       </c>
       <c r="Y28" t="n">
-        <v>1011.484175553476</v>
+        <v>362.153407045587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>482.6105221912669</v>
       </c>
       <c r="X31" t="n">
-        <v>1595.012952997039</v>
+        <v>482.6105221912669</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>257.8748235800315</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
         <v>1233.910891216385</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1032.970092797216</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>861.8767203589325</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>702.3820756818425</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>541.471260550162</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>376.8401346607533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.369875986873</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>1537.369875986873</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>1445.405497802496</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>1220.66979919126</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>393.3878498890781</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -6937,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6967,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>858.4517774252606</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>687.3584049869771</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>687.3584049869771</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1111.429368843485</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V37" t="n">
-        <v>1111.429368843485</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W37" t="n">
-        <v>1046.151483819305</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>1046.151483819305</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>1046.151483819305</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2128.160977929772</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>1718.036387243042</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1313.572457336103</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4552.827059799201</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4330.62057574606</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4073.56008400557</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3723.722529342051</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3339.962228477219</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>2939.318830646172</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2538.382157594262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7262,16 +7262,16 @@
         <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>418.9079176142731</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="C40" t="n">
-        <v>252.7383423677128</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V40" t="n">
-        <v>1348.756849250995</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="W40" t="n">
-        <v>1069.687184759869</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="X40" t="n">
-        <v>831.3433226195527</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="Y40" t="n">
-        <v>606.6076240083174</v>
+        <v>1031.933490873064</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4315.461670445927</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4058.401178705436</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="42">
@@ -7496,19 +7496,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>4390.520398086449</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V43" t="n">
-        <v>4390.520398086449</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W43" t="n">
-        <v>4390.520398086449</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X43" t="n">
-        <v>4390.520398086449</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y43" t="n">
-        <v>4390.520398086449</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E44" t="n">
-        <v>1233.910891216385</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F44" t="n">
-        <v>812.8804791700727</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1521950629048</v>
+        <v>393.3878498890781</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7684,16 +7684,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3132.785987910289</v>
+        <v>984.4144664352689</v>
       </c>
       <c r="C46" t="n">
-        <v>3132.785987910289</v>
+        <v>984.4144664352689</v>
       </c>
       <c r="D46" t="n">
-        <v>3132.785987910289</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>4150.971659063151</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U46" t="n">
-        <v>3868.173511609275</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V46" t="n">
-        <v>3594.287766548796</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="W46" t="n">
-        <v>3357.521686521525</v>
+        <v>984.4144664352689</v>
       </c>
       <c r="X46" t="n">
-        <v>3357.521686521525</v>
+        <v>984.4144664352689</v>
       </c>
       <c r="Y46" t="n">
-        <v>3132.785987910289</v>
+        <v>984.4144664352689</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>333.3534809699548</v>
+        <v>265.701425083553</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
@@ -7996,10 +7996,10 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8063,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>391.198134128384</v>
+        <v>67.67798733913797</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
@@ -8227,19 +8227,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>594.6194560602019</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>554.1634861730672</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>877.4504173780091</v>
+        <v>519.8012871361426</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8470,7 +8470,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>270.501948108868</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>389.3004056737937</v>
       </c>
       <c r="M9" t="n">
         <v>909.0562844399999</v>
@@ -8546,7 +8546,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>166.3187983121739</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8555,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>935.6763147186165</v>
@@ -8786,7 +8786,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>527.8697493391553</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>138.8618519023701</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9245,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>888.8639191474061</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>114.253171479086</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>915.4839494260226</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9956,25 +9956,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10667,28 +10667,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10910,19 +10910,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N39" t="n">
-        <v>174.1409094511112</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11144,22 +11144,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>531.1743980747688</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M45" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>45.84716204233382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>109.5624135699412</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.62098804812479</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>2.005248245583459</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23673,7 +23673,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>222.4997066824609</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>32.28731256679831</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>84.12811262255185</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>26.43728131980197</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,13 +24025,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>88.57144222862053</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3.083197172522716</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24384,7 +24384,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>32.32459858727609</v>
       </c>
       <c r="U25" t="n">
-        <v>126.9450269688242</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>222.4997066824609</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>187.9942390719858</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>78.90380404905309</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.1008895611881</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>120.4453721083745</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.083197172522887</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>144.9156891163802</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>96.14494677818604</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>211.6538616722762</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>4.874559219806002</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>186.6043367806779</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>10.65670172208945</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>36.36515802722602</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.10615505383146</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>142.0904386938123</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>96.14494677818604</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>26.79901202702501</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>41.88054861921555</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>623234.2600607807</v>
+        <v>623234.2600607809</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>623234.2600607808</v>
+        <v>623234.2600607809</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>623234.2600607809</v>
+        <v>623234.2600607808</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>623234.2600607809</v>
+        <v>623234.2600607808</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>623234.2600607808</v>
+        <v>623234.2600607809</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>623234.2600607809</v>
+        <v>623234.2600607808</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>623234.2600607807</v>
+        <v>623234.2600607809</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>623234.2600607807</v>
+        <v>623234.2600607808</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472358.9397941252</v>
+        <v>472358.9397941253</v>
       </c>
       <c r="C2" t="n">
         <v>472358.9397941252</v>
       </c>
       <c r="D2" t="n">
-        <v>472358.939794125</v>
+        <v>472358.9397941252</v>
       </c>
       <c r="E2" t="n">
         <v>419990.567925886</v>
@@ -26331,22 +26331,22 @@
         <v>419990.567925886</v>
       </c>
       <c r="H2" t="n">
-        <v>419990.5679258861</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="I2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.567925886</v>
       </c>
       <c r="J2" t="n">
+        <v>419990.5679258859</v>
+      </c>
+      <c r="K2" t="n">
         <v>419990.567925886</v>
       </c>
-      <c r="K2" t="n">
-        <v>419990.5679258858</v>
-      </c>
       <c r="L2" t="n">
-        <v>419990.5679258861</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="M2" t="n">
-        <v>419990.5679258861</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="N2" t="n">
         <v>419990.567925886</v>
@@ -26423,16 +26423,16 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>85879.9925474617</v>
+        <v>85879.99254746168</v>
       </c>
       <c r="E4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="F4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="G4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="H4" t="n">
         <v>30192.61954398331</v>
@@ -26450,16 +26450,16 @@
         <v>30192.61954398331</v>
       </c>
       <c r="M4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="N4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="P4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>57602.26859051853</v>
       </c>
       <c r="C6" t="n">
-        <v>232557.7784836326</v>
+        <v>232557.7784836325</v>
       </c>
       <c r="D6" t="n">
-        <v>115650.4069813946</v>
+        <v>115650.4069813947</v>
       </c>
       <c r="E6" t="n">
-        <v>291963.7839560951</v>
+        <v>291783.203363446</v>
       </c>
       <c r="F6" t="n">
-        <v>318932.7381370294</v>
+        <v>318752.1575443802</v>
       </c>
       <c r="G6" t="n">
-        <v>318932.7381370293</v>
+        <v>318752.1575443803</v>
       </c>
       <c r="H6" t="n">
-        <v>318932.7381370295</v>
+        <v>318752.1575443802</v>
       </c>
       <c r="I6" t="n">
-        <v>318932.7381370292</v>
+        <v>318752.1575443802</v>
       </c>
       <c r="J6" t="n">
-        <v>182337.9373311344</v>
+        <v>182157.3567384852</v>
       </c>
       <c r="K6" t="n">
-        <v>318932.7381370292</v>
+        <v>318752.1575443803</v>
       </c>
       <c r="L6" t="n">
-        <v>178933.4272722767</v>
+        <v>178752.8466796275</v>
       </c>
       <c r="M6" t="n">
-        <v>296423.473362982</v>
+        <v>296242.8927703327</v>
       </c>
       <c r="N6" t="n">
-        <v>318932.7381370293</v>
+        <v>318752.1575443802</v>
       </c>
       <c r="O6" t="n">
-        <v>318932.7381370293</v>
+        <v>318752.1575443803</v>
       </c>
       <c r="P6" t="n">
-        <v>318932.7381370292</v>
+        <v>318752.1575443801</v>
       </c>
     </row>
   </sheetData>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>152.1234863376401</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>149.0507926590307</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.04490025669182</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27590,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>17.29345936197274</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>346.8081194349377</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>177.4118274268348</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27669,13 +27669,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>11.16059421712512</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>23.12472639190918</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -27842,7 +27842,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>10.74232001086895</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>393.0160384451235</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>89.29455036116066</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28070,13 +28070,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>244.2170912967377</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
@@ -34716,10 +34716,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>338.004740734634</v>
+        <v>14.48459394538798</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>500.9700927793177</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>500.9700927793172</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>784.1601929209636</v>
+        <v>426.5110626790972</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35190,7 +35190,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>176.8525848279838</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>333.1858818629447</v>
       </c>
       <c r="M9" t="n">
         <v>851.4920007015825</v>
@@ -35266,7 +35266,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>108.5673193121739</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>882.4829213248665</v>
@@ -35506,7 +35506,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>87.49261310237013</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>831.2996354089887</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>56.50169247908597</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>862.2905560322727</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37387,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37630,19 +37630,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N39" t="n">
-        <v>120.9475160573612</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363514</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M45" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
